--- a/заказы/статистика филиалы/2023/11,23/29,11,23 КИ/дв 29,11,23 бррсч.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/29,11,23 КИ/дв 29,11,23 бррсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\29,11,23 филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\29,11,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267244EC-EC47-4796-BDF5-88E19F698618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33531DB0-2A5C-4E9E-832C-A44A15703E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,7 +435,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -445,6 +445,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -632,76 +634,76 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5513,10 +5515,13 @@
     <sheetNames>
       <sheetName val="TDSheet"/>
       <sheetName val="Бердянск"/>
+      <sheetName val="Донецк"/>
+      <sheetName val="Луганск"/>
+      <sheetName val="Мелитополь"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>Номенклатура</v>
@@ -6632,6 +6637,15 @@
           </cell>
           <cell r="D140">
             <v>555</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Номенклатура</v>
           </cell>
         </row>
       </sheetData>
@@ -6969,7 +6983,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z10" sqref="Z10"/>
+      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -7128,46 +7142,46 @@
       <c r="H5" s="11"/>
       <c r="I5" s="12"/>
       <c r="J5" s="18">
-        <f>SUM(J6:J204)</f>
+        <f t="shared" ref="J5:P5" si="1">SUM(J6:J204)</f>
         <v>12222.088</v>
       </c>
       <c r="K5" s="18">
-        <f>SUM(K6:K204)</f>
+        <f t="shared" si="1"/>
         <v>31.260000000000037</v>
       </c>
       <c r="L5" s="18">
-        <f>SUM(L6:L204)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M5" s="18">
-        <f>SUM(M6:M204)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5" s="18">
-        <f>SUM(N6:N204)</f>
+        <f t="shared" si="1"/>
         <v>2450.6695999999988</v>
       </c>
       <c r="O5" s="18">
-        <f>SUM(O6:O204)</f>
+        <f t="shared" si="1"/>
         <v>7942.2252000000008</v>
       </c>
       <c r="P5" s="18">
-        <f>SUM(P6:P204)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q5" s="19"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
       <c r="T5" s="18">
-        <f t="shared" ref="T5:V6" si="1">SUM(T6:T204)</f>
+        <f t="shared" ref="T5:V5" si="2">SUM(T6:T204)</f>
         <v>2137.6432</v>
       </c>
       <c r="U5" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2403.1165999999989</v>
       </c>
       <c r="V5" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2499.431999999998</v>
       </c>
       <c r="W5" s="13"/>
@@ -7276,11 +7290,11 @@
         <v>2.5419999999999998</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" ref="K7:K70" si="2">F7-J7</f>
+        <f t="shared" ref="K7:K70" si="3">F7-J7</f>
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <f t="shared" ref="N7:N70" si="3">F7/5</f>
+        <f t="shared" ref="N7:N70" si="4">F7/5</f>
         <v>0.50839999999999996</v>
       </c>
       <c r="O7" s="27">
@@ -7288,11 +7302,11 @@
       </c>
       <c r="P7" s="27"/>
       <c r="R7" s="2">
-        <f t="shared" ref="R7:R70" si="4">(O7+G7)/N7</f>
+        <f t="shared" ref="R7:R70" si="5">(O7+G7)/N7</f>
         <v>17.999606608969316</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" ref="S7:S70" si="5">G7/N7</f>
+        <f t="shared" ref="S7:S70" si="6">G7/N7</f>
         <v>8.1648308418568067</v>
       </c>
       <c r="T7" s="2">
@@ -7305,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="2">
-        <f t="shared" ref="X7:X70" si="6">O7*H7</f>
+        <f t="shared" ref="X7:X70" si="7">O7*H7</f>
         <v>5</v>
       </c>
     </row>
@@ -7340,24 +7354,24 @@
         <v>45.893999999999998</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8960000000000008</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5579999999999998</v>
       </c>
       <c r="O8" s="27">
-        <f t="shared" ref="O7:O21" si="7">12*N8-G8</f>
+        <f t="shared" ref="O8:O14" si="8">12*N8-G8</f>
         <v>4.7920000000000016</v>
       </c>
       <c r="P8" s="27"/>
       <c r="R8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.498639882820674</v>
       </c>
       <c r="T8" s="2">
@@ -7373,7 +7387,7 @@
         <v>5.2725999999999997</v>
       </c>
       <c r="X8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.7920000000000016</v>
       </c>
     </row>
@@ -7410,24 +7424,24 @@
         <v>67.652000000000001</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8349999999999937</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.2974</v>
       </c>
       <c r="O9" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>97.896800000000013</v>
       </c>
       <c r="P9" s="27"/>
       <c r="R9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.000000000000002</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1528249891588676</v>
       </c>
       <c r="T9" s="2">
@@ -7443,7 +7457,7 @@
         <v>18.293199999999999</v>
       </c>
       <c r="X9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.896800000000013</v>
       </c>
     </row>
@@ -7480,24 +7494,24 @@
         <v>10</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O10" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="P10" s="27"/>
       <c r="R10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="T10" s="2">
@@ -7513,7 +7527,7 @@
         <v>0.8</v>
       </c>
       <c r="X10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2</v>
       </c>
     </row>
@@ -7550,24 +7564,24 @@
         <v>116</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="O11" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>102</v>
       </c>
       <c r="P11" s="27"/>
       <c r="R11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.75</v>
       </c>
       <c r="T11" s="2">
@@ -7583,7 +7597,7 @@
         <v>8.4</v>
       </c>
       <c r="X11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45.9</v>
       </c>
     </row>
@@ -7620,24 +7634,24 @@
         <v>160</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.799999999999997</v>
       </c>
       <c r="O12" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>159.59999999999997</v>
       </c>
       <c r="P12" s="27"/>
       <c r="R12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.1341463414634152</v>
       </c>
       <c r="T12" s="2">
@@ -7653,7 +7667,7 @@
         <v>23.2</v>
       </c>
       <c r="X12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>71.819999999999993</v>
       </c>
     </row>
@@ -7684,11 +7698,11 @@
         <v>12</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
       <c r="O13" s="27">
@@ -7697,11 +7711,11 @@
       </c>
       <c r="P13" s="27"/>
       <c r="R13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0000000000000009</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T13" s="2">
@@ -7714,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.4</v>
       </c>
     </row>
@@ -7749,24 +7763,24 @@
         <v>20</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O14" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="P14" s="27"/>
       <c r="R14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="T14" s="2">
@@ -7782,7 +7796,7 @@
         <v>2.4</v>
       </c>
       <c r="X14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8</v>
       </c>
     </row>
@@ -7815,23 +7829,23 @@
         <v>5</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
       <c r="R15" s="2">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="S15" s="2">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
+      <c r="S15" s="2">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
       <c r="T15" s="2">
         <v>0</v>
       </c>
@@ -7842,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7879,21 +7893,21 @@
         <v>20</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
       <c r="R16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.333333333333334</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.333333333333334</v>
       </c>
       <c r="T16" s="2">
@@ -7909,7 +7923,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7944,21 +7958,21 @@
         <v>10</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
       <c r="R17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="T17" s="2">
@@ -7974,7 +7988,7 @@
         <v>2.8</v>
       </c>
       <c r="X17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8005,11 +8019,11 @@
         <v>9</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
       <c r="O18" s="27">
@@ -8018,11 +8032,11 @@
       </c>
       <c r="P18" s="27"/>
       <c r="R18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0000000000000009</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T18" s="2">
@@ -8035,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.52</v>
       </c>
     </row>
@@ -8070,21 +8084,21 @@
         <v>2</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
       <c r="R19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="T19" s="2">
@@ -8100,7 +8114,7 @@
         <v>1.2</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8131,21 +8145,21 @@
         <v>55</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O20" s="27"/>
       <c r="P20" s="27"/>
       <c r="R20" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S20" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T20" s="2">
@@ -8165,7 +8179,7 @@
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="X20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8200,21 +8214,21 @@
         <v>6</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
       <c r="R21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="T21" s="2">
@@ -8230,7 +8244,7 @@
         <v>1.2</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8259,21 +8273,21 @@
         <v>55</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.8</v>
       </c>
       <c r="O22" s="27"/>
       <c r="P22" s="27"/>
       <c r="R22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T22" s="2">
@@ -8289,7 +8303,7 @@
         <v>0.4</v>
       </c>
       <c r="X22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8320,11 +8334,11 @@
         <v>18</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="O23" s="27">
@@ -8333,11 +8347,11 @@
       </c>
       <c r="P23" s="27"/>
       <c r="R23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T23" s="2">
@@ -8350,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.5700000000000003</v>
       </c>
     </row>
@@ -8390,11 +8404,11 @@
         <v>41</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.4</v>
       </c>
       <c r="O24" s="27">
@@ -8403,11 +8417,11 @@
       </c>
       <c r="P24" s="27"/>
       <c r="R24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9230769230769231</v>
       </c>
       <c r="T24" s="2">
@@ -8423,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>108.19199999999998</v>
       </c>
     </row>
@@ -8456,21 +8470,21 @@
         <v>120</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.2</v>
       </c>
       <c r="O25" s="27"/>
       <c r="P25" s="27"/>
       <c r="R25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-215</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-215</v>
       </c>
       <c r="T25" s="2">
@@ -8489,7 +8503,7 @@
         <v>130</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8524,24 +8538,24 @@
         <v>15</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
       <c r="O26" s="27">
-        <f t="shared" ref="O23:O86" si="8">12*N26-G26</f>
+        <f t="shared" ref="O26:O85" si="9">12*N26-G26</f>
         <v>16.799999999999997</v>
       </c>
       <c r="P26" s="27"/>
       <c r="R26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="T26" s="2">
@@ -8557,7 +8571,7 @@
         <v>1.2</v>
       </c>
       <c r="X26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.879999999999999</v>
       </c>
     </row>
@@ -8592,11 +8606,11 @@
         <v>26</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8</v>
       </c>
       <c r="O27" s="27">
@@ -8605,11 +8619,11 @@
       </c>
       <c r="P27" s="27"/>
       <c r="R27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="T27" s="2">
@@ -8625,7 +8639,7 @@
         <v>1.2</v>
       </c>
       <c r="X27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.6</v>
       </c>
     </row>
@@ -8665,21 +8679,21 @@
         <v>83.977000000000004</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-14.076999999999998</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.98</v>
       </c>
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="R28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.759585121602287</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.759585121602287</v>
       </c>
       <c r="T28" s="2">
@@ -8695,7 +8709,7 @@
         <v>20.189399999999999</v>
       </c>
       <c r="X28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8732,24 +8746,24 @@
         <v>1802.5809999999999</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.448000000000093</v>
       </c>
       <c r="N29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>368.00580000000002</v>
       </c>
       <c r="O29" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1012.2886000000008</v>
       </c>
       <c r="P29" s="27"/>
       <c r="R29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.000000000000002</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.2492591149378622</v>
       </c>
       <c r="T29" s="2">
@@ -8765,7 +8779,7 @@
         <v>393.22480000000002</v>
       </c>
       <c r="X29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1012.2886000000008</v>
       </c>
     </row>
@@ -8805,11 +8819,11 @@
         <v>114.812</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.42000000000000171</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.878399999999999</v>
       </c>
       <c r="O30" s="27">
@@ -8818,11 +8832,11 @@
       </c>
       <c r="P30" s="27"/>
       <c r="R30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.2516959227918036</v>
       </c>
       <c r="T30" s="2">
@@ -8838,7 +8852,7 @@
         <v>16.303800000000003</v>
       </c>
       <c r="X30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>154.3904</v>
       </c>
     </row>
@@ -8873,24 +8887,24 @@
         <v>30.675999999999998</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.8169999999999966</v>
       </c>
       <c r="N31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5718000000000005</v>
       </c>
       <c r="O31" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18.565600000000011</v>
       </c>
       <c r="P31" s="27"/>
       <c r="R31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.9391049477229965</v>
       </c>
       <c r="T31" s="2">
@@ -8906,7 +8920,7 @@
         <v>2.8992</v>
       </c>
       <c r="X31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.565600000000011</v>
       </c>
     </row>
@@ -8943,24 +8957,24 @@
         <v>1368.6869999999999</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.87700000000018</v>
       </c>
       <c r="N32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>280.31280000000004</v>
       </c>
       <c r="O32" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>587.56960000000026</v>
       </c>
       <c r="P32" s="27"/>
       <c r="R32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.9038788096726229</v>
       </c>
       <c r="T32" s="2">
@@ -8976,7 +8990,7 @@
         <v>311.39760000000001</v>
       </c>
       <c r="X32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>587.56960000000026</v>
       </c>
     </row>
@@ -8997,29 +9011,29 @@
         <v>21.66</v>
       </c>
       <c r="H33" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="17">
         <v>55</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O33" s="27"/>
       <c r="P33" s="27"/>
       <c r="R33" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S33" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S33" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T33" s="2">
         <v>0</v>
       </c>
@@ -9030,7 +9044,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9061,21 +9075,21 @@
         <v>55</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O34" s="27"/>
       <c r="P34" s="27"/>
       <c r="R34" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S34" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T34" s="2">
@@ -9094,7 +9108,7 @@
         <v>130</v>
       </c>
       <c r="X34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9134,21 +9148,21 @@
         <v>19.053999999999998</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.762000000000004</v>
       </c>
       <c r="N35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9632000000000005</v>
       </c>
       <c r="O35" s="27"/>
       <c r="P35" s="27"/>
       <c r="R35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33.396800451321724</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33.396800451321724</v>
       </c>
       <c r="T35" s="2">
@@ -9168,7 +9182,7 @@
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="X35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9210,24 +9224,24 @@
         <v>87.6</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.14800000000001</v>
       </c>
       <c r="N36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.349600000000002</v>
       </c>
       <c r="O36" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>176.24519999999998</v>
       </c>
       <c r="P36" s="27"/>
       <c r="R36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.999999999999998</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.7618852055064558</v>
       </c>
       <c r="T36" s="2">
@@ -9243,7 +9257,7 @@
         <v>12.8672</v>
       </c>
       <c r="X36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>176.24519999999998</v>
       </c>
     </row>
@@ -9280,24 +9294,24 @@
         <v>1402.982</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.069999999999936</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>283.0104</v>
       </c>
       <c r="O37" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>775.77880000000005</v>
       </c>
       <c r="P37" s="27"/>
       <c r="R37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.2588328909467634</v>
       </c>
       <c r="T37" s="2">
@@ -9313,7 +9327,7 @@
         <v>296.11680000000001</v>
       </c>
       <c r="X37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>775.77880000000005</v>
       </c>
     </row>
@@ -9350,24 +9364,24 @@
         <v>1254.2180000000001</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60.795999999999822</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>263.00279999999998</v>
       </c>
       <c r="O38" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>592.15459999999985</v>
       </c>
       <c r="P38" s="27"/>
       <c r="R38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.7484855674540345</v>
       </c>
       <c r="T38" s="2">
@@ -9383,7 +9397,7 @@
         <v>287.01859999999999</v>
       </c>
       <c r="X38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>592.15459999999985</v>
       </c>
     </row>
@@ -9423,24 +9437,24 @@
         <v>116.883</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.9059999999999917</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.9954</v>
       </c>
       <c r="O39" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>154.6148</v>
       </c>
       <c r="P39" s="27"/>
       <c r="R39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9705847586313503</v>
       </c>
       <c r="T39" s="2">
@@ -9456,7 +9470,7 @@
         <v>15.9772</v>
       </c>
       <c r="X39" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>154.6148</v>
       </c>
     </row>
@@ -9494,21 +9508,21 @@
         <v>67.227999999999994</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-36.411999999999992</v>
       </c>
       <c r="N40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1631999999999998</v>
       </c>
       <c r="O40" s="27"/>
       <c r="P40" s="27"/>
       <c r="R40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.990232346832816</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30.990232346832816</v>
       </c>
       <c r="T40" s="2">
@@ -9528,7 +9542,7 @@
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="X40" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9568,24 +9582,24 @@
         <v>42.832000000000001</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.46399999999999864</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.4736000000000011</v>
       </c>
       <c r="O41" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31.344200000000015</v>
       </c>
       <c r="P41" s="27"/>
       <c r="R41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.3009582703927478</v>
       </c>
       <c r="T41" s="2">
@@ -9601,7 +9615,7 @@
         <v>8.2763999999999989</v>
       </c>
       <c r="X41" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31.344200000000015</v>
       </c>
     </row>
@@ -9638,24 +9652,24 @@
         <v>158.994</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1339999999999861</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33.025599999999997</v>
       </c>
       <c r="O42" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>52.410199999999975</v>
       </c>
       <c r="P42" s="27"/>
       <c r="R42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.413043214960517</v>
       </c>
       <c r="T42" s="2">
@@ -9671,7 +9685,7 @@
         <v>37.898000000000003</v>
       </c>
       <c r="X42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.410199999999975</v>
       </c>
     </row>
@@ -9708,24 +9722,24 @@
         <v>189.21799999999999</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.448000000000008</v>
       </c>
       <c r="N43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40.333199999999998</v>
       </c>
       <c r="O43" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54.764399999999966</v>
       </c>
       <c r="P43" s="27"/>
       <c r="R43" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.642200470084198</v>
       </c>
       <c r="T43" s="2">
@@ -9741,7 +9755,7 @@
         <v>47.517399999999995</v>
       </c>
       <c r="X43" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54.764399999999966</v>
       </c>
     </row>
@@ -9774,21 +9788,21 @@
         <v>54.432000000000002</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-54.432000000000002</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O44" s="27"/>
       <c r="P44" s="27"/>
       <c r="R44" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S44" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T44" s="2">
@@ -9804,7 +9818,7 @@
         <v>4.6505999999999998</v>
       </c>
       <c r="X44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9841,21 +9855,21 @@
         <v>180.44900000000001</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.771999999999991</v>
       </c>
       <c r="N45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39.444200000000002</v>
       </c>
       <c r="O45" s="27"/>
       <c r="P45" s="27"/>
       <c r="R45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.725663088616322</v>
       </c>
       <c r="S45" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.725663088616322</v>
       </c>
       <c r="T45" s="2">
@@ -9871,7 +9885,7 @@
         <v>57.985799999999998</v>
       </c>
       <c r="X45" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9902,21 +9916,21 @@
         <v>1.3</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="N46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.26080000000000003</v>
       </c>
       <c r="O46" s="27"/>
       <c r="P46" s="27"/>
       <c r="R46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S46" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T46" s="2">
@@ -9929,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9966,21 +9980,21 @@
         <v>66.043000000000006</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.2700000000000102</v>
       </c>
       <c r="N47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.954599999999999</v>
       </c>
       <c r="O47" s="27"/>
       <c r="P47" s="27"/>
       <c r="R47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.224599756071203</v>
       </c>
       <c r="S47" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.224599756071203</v>
       </c>
       <c r="T47" s="2">
@@ -9996,7 +10010,7 @@
         <v>17.675800000000002</v>
       </c>
       <c r="X47" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10031,21 +10045,21 @@
         <v>12.974</v>
       </c>
       <c r="K48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.12299999999999933</v>
       </c>
       <c r="N48" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5702000000000003</v>
       </c>
       <c r="O48" s="27"/>
       <c r="P48" s="27"/>
       <c r="R48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.041397556610377</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28.041397556610377</v>
       </c>
       <c r="T48" s="2">
@@ -10061,7 +10075,7 @@
         <v>4.7165999999999997</v>
       </c>
       <c r="X48" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10098,24 +10112,24 @@
         <v>477.52100000000002</v>
       </c>
       <c r="K49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.980999999999995</v>
       </c>
       <c r="N49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98.300399999999996</v>
       </c>
       <c r="O49" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>500.83880000000011</v>
       </c>
       <c r="P49" s="27"/>
       <c r="R49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.000000000000002</v>
       </c>
       <c r="S49" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.9050176804977399</v>
       </c>
       <c r="T49" s="2">
@@ -10131,7 +10145,7 @@
         <v>90.364200000000011</v>
       </c>
       <c r="X49" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500.83880000000011</v>
       </c>
     </row>
@@ -10168,24 +10182,24 @@
         <v>298.86799999999999</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.773000000000025</v>
       </c>
       <c r="N50" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62.728200000000001</v>
       </c>
       <c r="O50" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>274.71439999999996</v>
       </c>
       <c r="P50" s="27"/>
       <c r="R50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.999999999999998</v>
       </c>
       <c r="S50" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.6205598120143732</v>
       </c>
       <c r="T50" s="2">
@@ -10201,7 +10215,7 @@
         <v>59.796400000000006</v>
       </c>
       <c r="X50" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>274.71439999999996</v>
       </c>
     </row>
@@ -10236,24 +10250,24 @@
         <v>18.538</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.65399999999999991</v>
       </c>
       <c r="N51" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5768</v>
       </c>
       <c r="O51" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3725999999999985</v>
       </c>
       <c r="P51" s="27"/>
       <c r="R51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S51" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.497931111608141</v>
       </c>
       <c r="T51" s="2">
@@ -10269,7 +10283,7 @@
         <v>3.4729999999999999</v>
       </c>
       <c r="X51" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.3725999999999985</v>
       </c>
     </row>
@@ -10307,11 +10321,11 @@
         <v>425</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-11</v>
       </c>
       <c r="N52" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>82.8</v>
       </c>
       <c r="O52" s="27">
@@ -10320,11 +10334,11 @@
       </c>
       <c r="P52" s="27"/>
       <c r="R52" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="S52" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9589371980676331</v>
       </c>
       <c r="T52" s="2">
@@ -10340,7 +10354,7 @@
         <v>25.4</v>
       </c>
       <c r="X52" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>233.20000000000002</v>
       </c>
     </row>
@@ -10375,24 +10389,24 @@
         <v>20</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N53" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O53" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="P53" s="27"/>
       <c r="R53" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S53" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="T53" s="2">
@@ -10408,7 +10422,7 @@
         <v>2</v>
       </c>
       <c r="X53" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.6</v>
       </c>
     </row>
@@ -10435,23 +10449,23 @@
         <v>45</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N54" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O54" s="27"/>
       <c r="P54" s="27"/>
       <c r="R54" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S54" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S54" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T54" s="2">
         <v>0</v>
       </c>
@@ -10462,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10500,21 +10514,21 @@
         <v>117</v>
       </c>
       <c r="K55" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-60</v>
       </c>
       <c r="N55" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="O55" s="27"/>
       <c r="P55" s="27"/>
       <c r="R55" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.789473684210524</v>
       </c>
       <c r="S55" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30.789473684210524</v>
       </c>
       <c r="T55" s="2">
@@ -10530,7 +10544,7 @@
         <v>29.2</v>
       </c>
       <c r="X55" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10570,24 +10584,24 @@
         <v>364</v>
       </c>
       <c r="K56" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="N56" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74.8</v>
       </c>
       <c r="O56" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>238.59999999999991</v>
       </c>
       <c r="P56" s="27"/>
       <c r="R56" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S56" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.810160427807487</v>
       </c>
       <c r="T56" s="2">
@@ -10603,7 +10617,7 @@
         <v>78.400000000000006</v>
       </c>
       <c r="X56" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>95.439999999999969</v>
       </c>
     </row>
@@ -10643,21 +10657,21 @@
         <v>352</v>
       </c>
       <c r="K57" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-164</v>
       </c>
       <c r="N57" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37.6</v>
       </c>
       <c r="O57" s="27"/>
       <c r="P57" s="27"/>
       <c r="R57" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33.936170212765958</v>
       </c>
       <c r="S57" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33.936170212765958</v>
       </c>
       <c r="T57" s="2">
@@ -10673,7 +10687,7 @@
         <v>108.4</v>
       </c>
       <c r="X57" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10713,21 +10727,21 @@
         <v>22.826000000000001</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.1980000000000004</v>
       </c>
       <c r="N58" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5255999999999998</v>
       </c>
       <c r="O58" s="27"/>
       <c r="P58" s="27"/>
       <c r="R58" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.794871794871796</v>
       </c>
       <c r="S58" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.794871794871796</v>
       </c>
       <c r="T58" s="2">
@@ -10743,7 +10757,7 @@
         <v>16.550999999999998</v>
       </c>
       <c r="X58" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10781,24 +10795,24 @@
         <v>53.462000000000003</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61599999999999966</v>
       </c>
       <c r="N59" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.8156</v>
       </c>
       <c r="O59" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75.875199999999978</v>
       </c>
       <c r="P59" s="27"/>
       <c r="R59" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.999999999999998</v>
       </c>
       <c r="S59" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9846517992529309</v>
       </c>
       <c r="T59" s="2">
@@ -10814,7 +10828,7 @@
         <v>7.5528000000000004</v>
       </c>
       <c r="X59" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75.875199999999978</v>
       </c>
     </row>
@@ -10856,24 +10870,24 @@
         <v>57.095999999999997</v>
       </c>
       <c r="K60" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.482000000000006</v>
       </c>
       <c r="N60" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.915600000000001</v>
       </c>
       <c r="O60" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>121.78820000000003</v>
       </c>
       <c r="P60" s="27"/>
       <c r="R60" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S60" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.800243562155643</v>
       </c>
       <c r="T60" s="2">
@@ -10889,7 +10903,7 @@
         <v>6.1054000000000004</v>
       </c>
       <c r="X60" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>121.78820000000003</v>
       </c>
     </row>
@@ -10924,24 +10938,24 @@
         <v>162.48400000000001</v>
       </c>
       <c r="K61" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59.353999999999985</v>
       </c>
       <c r="N61" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44.367599999999996</v>
       </c>
       <c r="O61" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>169.28320000000002</v>
       </c>
       <c r="P61" s="27"/>
       <c r="R61" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.000000000000002</v>
       </c>
       <c r="S61" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.1845310541926999</v>
       </c>
       <c r="T61" s="2">
@@ -10957,7 +10971,7 @@
         <v>25.963000000000001</v>
       </c>
       <c r="X61" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>169.28320000000002</v>
       </c>
     </row>
@@ -10997,11 +11011,11 @@
         <v>391</v>
       </c>
       <c r="K62" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="N62" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78.599999999999994</v>
       </c>
       <c r="O62" s="27">
@@ -11010,11 +11024,11 @@
       </c>
       <c r="P62" s="27"/>
       <c r="R62" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="S62" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7786259541984735</v>
       </c>
       <c r="T62" s="2">
@@ -11030,7 +11044,7 @@
         <v>47.6</v>
       </c>
       <c r="X62" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>227.03999999999996</v>
       </c>
     </row>
@@ -11065,11 +11079,11 @@
         <v>2</v>
       </c>
       <c r="K63" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="O63" s="27">
@@ -11077,11 +11091,11 @@
       </c>
       <c r="P63" s="27"/>
       <c r="R63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="S63" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T63" s="2">
@@ -11097,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
@@ -11132,11 +11146,11 @@
         <v>25</v>
       </c>
       <c r="K64" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="N64" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="O64" s="27">
@@ -11145,11 +11159,11 @@
       </c>
       <c r="P64" s="27"/>
       <c r="R64" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="S64" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5217391304347827</v>
       </c>
       <c r="T64" s="2">
@@ -11165,7 +11179,7 @@
         <v>1.2</v>
       </c>
       <c r="X64" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.04</v>
       </c>
     </row>
@@ -11200,11 +11214,11 @@
         <v>16</v>
       </c>
       <c r="K65" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N65" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2</v>
       </c>
       <c r="O65" s="27">
@@ -11213,11 +11227,11 @@
       </c>
       <c r="P65" s="27"/>
       <c r="R65" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="S65" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T65" s="2">
@@ -11233,7 +11247,7 @@
         <v>1.2</v>
       </c>
       <c r="X65" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.9600000000000009</v>
       </c>
     </row>
@@ -11262,21 +11276,21 @@
         <v>45</v>
       </c>
       <c r="K66" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N66" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O66" s="27"/>
       <c r="P66" s="27"/>
       <c r="R66" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S66" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T66" s="2">
@@ -11292,7 +11306,7 @@
         <v>1</v>
       </c>
       <c r="X66" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11329,11 +11343,11 @@
         <v>30</v>
       </c>
       <c r="K67" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N67" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O67" s="27">
@@ -11342,11 +11356,11 @@
       </c>
       <c r="P67" s="27"/>
       <c r="R67" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="S67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="T67" s="2">
@@ -11362,7 +11376,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="X67" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.2</v>
       </c>
     </row>
@@ -11402,21 +11416,21 @@
         <v>139</v>
       </c>
       <c r="K68" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-11</v>
       </c>
       <c r="N68" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.6</v>
       </c>
       <c r="O68" s="27"/>
       <c r="P68" s="27"/>
       <c r="R68" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.1015625</v>
       </c>
       <c r="S68" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.1015625</v>
       </c>
       <c r="T68" s="2">
@@ -11432,7 +11446,7 @@
         <v>47</v>
       </c>
       <c r="X68" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11467,11 +11481,11 @@
         <v>24</v>
       </c>
       <c r="K69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N69" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8</v>
       </c>
       <c r="O69" s="27">
@@ -11480,11 +11494,11 @@
       </c>
       <c r="P69" s="27"/>
       <c r="R69" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="S69" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
       <c r="T69" s="2">
@@ -11500,7 +11514,7 @@
         <v>1.2</v>
       </c>
       <c r="X69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.96</v>
       </c>
     </row>
@@ -11535,21 +11549,21 @@
         <v>14</v>
       </c>
       <c r="K70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N70" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8</v>
       </c>
       <c r="O70" s="27"/>
       <c r="P70" s="27"/>
       <c r="R70" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.142857142857144</v>
       </c>
       <c r="S70" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.142857142857144</v>
       </c>
       <c r="T70" s="2">
@@ -11565,7 +11579,7 @@
         <v>2</v>
       </c>
       <c r="X70" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11596,11 +11610,11 @@
         <v>12.045999999999999</v>
       </c>
       <c r="K71" s="2">
-        <f t="shared" ref="K71:K108" si="9">F71-J71</f>
+        <f t="shared" ref="K71:K108" si="10">F71-J71</f>
         <v>-1.2999999999999989</v>
       </c>
       <c r="N71" s="2">
-        <f t="shared" ref="N71:N108" si="10">F71/5</f>
+        <f t="shared" ref="N71:N108" si="11">F71/5</f>
         <v>2.1492</v>
       </c>
       <c r="O71" s="27">
@@ -11609,11 +11623,11 @@
       </c>
       <c r="P71" s="27"/>
       <c r="R71" s="2">
-        <f t="shared" ref="R71:R108" si="11">(O71+G71)/N71</f>
+        <f t="shared" ref="R71:R108" si="12">(O71+G71)/N71</f>
         <v>7</v>
       </c>
       <c r="S71" s="2">
-        <f t="shared" ref="S71:S108" si="12">G71/N71</f>
+        <f t="shared" ref="S71:S108" si="13">G71/N71</f>
         <v>0</v>
       </c>
       <c r="T71" s="2">
@@ -11626,7 +11640,7 @@
         <v>0</v>
       </c>
       <c r="X71" s="2">
-        <f t="shared" ref="X71:X108" si="13">O71*H71</f>
+        <f t="shared" ref="X71:X108" si="14">O71*H71</f>
         <v>15.0444</v>
       </c>
     </row>
@@ -11666,21 +11680,21 @@
         <v>35.67</v>
       </c>
       <c r="K72" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.82799999999999585</v>
       </c>
       <c r="N72" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.2995999999999999</v>
       </c>
       <c r="O72" s="27"/>
       <c r="P72" s="27"/>
       <c r="R72" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15.69565455641405</v>
       </c>
       <c r="S72" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15.69565455641405</v>
       </c>
       <c r="T72" s="2">
@@ -11696,7 +11710,7 @@
         <v>3.8954</v>
       </c>
       <c r="X72" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -11736,24 +11750,24 @@
         <v>37.125999999999998</v>
       </c>
       <c r="K73" s="2">
+        <f t="shared" si="10"/>
+        <v>1.0930000000000035</v>
+      </c>
+      <c r="N73" s="2">
+        <f t="shared" si="11"/>
+        <v>7.6438000000000006</v>
+      </c>
+      <c r="O73" s="27">
         <f t="shared" si="9"/>
-        <v>1.0930000000000035</v>
-      </c>
-      <c r="N73" s="2">
-        <f t="shared" si="10"/>
-        <v>7.6438000000000006</v>
-      </c>
-      <c r="O73" s="27">
-        <f t="shared" si="8"/>
         <v>42.507600000000011</v>
       </c>
       <c r="P73" s="27"/>
       <c r="R73" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.000000000000002</v>
       </c>
       <c r="S73" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.4389439807425628</v>
       </c>
       <c r="T73" s="2">
@@ -11769,7 +11783,7 @@
         <v>6.2037999999999993</v>
       </c>
       <c r="X73" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>42.507600000000011</v>
       </c>
     </row>
@@ -11807,11 +11821,11 @@
         <v>310</v>
       </c>
       <c r="K74" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="N74" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>63.2</v>
       </c>
       <c r="O74" s="27">
@@ -11820,11 +11834,11 @@
       </c>
       <c r="P74" s="27"/>
       <c r="R74" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="S74" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.3037974683544302</v>
       </c>
       <c r="T74" s="2">
@@ -11840,7 +11854,7 @@
         <v>20.8</v>
       </c>
       <c r="X74" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>169.28000000000003</v>
       </c>
     </row>
@@ -11880,24 +11894,24 @@
         <v>393</v>
       </c>
       <c r="K75" s="2">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="N75" s="2">
+        <f t="shared" si="11"/>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="O75" s="27">
         <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="N75" s="2">
-        <f t="shared" si="10"/>
-        <v>81.599999999999994</v>
-      </c>
-      <c r="O75" s="27">
-        <f t="shared" si="8"/>
         <v>112.19999999999993</v>
       </c>
       <c r="P75" s="27"/>
       <c r="R75" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="S75" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10.625</v>
       </c>
       <c r="T75" s="2">
@@ -11913,7 +11927,7 @@
         <v>96.8</v>
       </c>
       <c r="X75" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>44.879999999999974</v>
       </c>
     </row>
@@ -11953,24 +11967,24 @@
         <v>129</v>
       </c>
       <c r="K76" s="2">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="N76" s="2">
+        <f t="shared" si="11"/>
+        <v>27.6</v>
+      </c>
+      <c r="O76" s="27">
         <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="N76" s="2">
-        <f t="shared" si="10"/>
-        <v>27.6</v>
-      </c>
-      <c r="O76" s="27">
-        <f t="shared" si="8"/>
         <v>45.200000000000045</v>
       </c>
       <c r="P76" s="27"/>
       <c r="R76" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.000000000000002</v>
       </c>
       <c r="S76" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10.362318840579709</v>
       </c>
       <c r="T76" s="2">
@@ -11986,7 +12000,7 @@
         <v>30.8</v>
       </c>
       <c r="X76" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18.08000000000002</v>
       </c>
     </row>
@@ -12023,21 +12037,21 @@
         <v>52.604999999999997</v>
       </c>
       <c r="K77" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-46.787999999999997</v>
       </c>
       <c r="N77" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1634</v>
       </c>
       <c r="O77" s="27"/>
       <c r="P77" s="27"/>
       <c r="R77" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>697.34828949630389</v>
       </c>
       <c r="S77" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>697.34828949630389</v>
       </c>
       <c r="T77" s="2">
@@ -12053,7 +12067,7 @@
         <v>61.972000000000001</v>
       </c>
       <c r="X77" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12090,21 +12104,21 @@
         <v>52.164000000000001</v>
       </c>
       <c r="K78" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-12.822000000000003</v>
       </c>
       <c r="N78" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.8683999999999994</v>
       </c>
       <c r="O78" s="27"/>
       <c r="P78" s="27"/>
       <c r="R78" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>94.770982664836566</v>
       </c>
       <c r="S78" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>94.770982664836566</v>
       </c>
       <c r="T78" s="2">
@@ -12120,7 +12134,7 @@
         <v>59.919000000000004</v>
       </c>
       <c r="X78" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12157,21 +12171,21 @@
         <v>5</v>
       </c>
       <c r="K79" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N79" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O79" s="27"/>
       <c r="P79" s="27"/>
       <c r="R79" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>148</v>
       </c>
       <c r="S79" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>148</v>
       </c>
       <c r="T79" s="2">
@@ -12191,7 +12205,7 @@
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="X79" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12228,21 +12242,21 @@
         <v>33</v>
       </c>
       <c r="K80" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N80" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.6</v>
       </c>
       <c r="O80" s="27"/>
       <c r="P80" s="27"/>
       <c r="R80" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18.030303030303031</v>
       </c>
       <c r="S80" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18.030303030303031</v>
       </c>
       <c r="T80" s="2">
@@ -12262,7 +12276,7 @@
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="X80" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12299,11 +12313,11 @@
         <v>22</v>
       </c>
       <c r="K81" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N81" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="O81" s="27">
@@ -12312,11 +12326,11 @@
       </c>
       <c r="P81" s="27"/>
       <c r="R81" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="S81" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.4090909090909087</v>
       </c>
       <c r="T81" s="2">
@@ -12332,7 +12346,7 @@
         <v>2.6</v>
       </c>
       <c r="X81" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11.600000000000001</v>
       </c>
     </row>
@@ -12369,24 +12383,24 @@
         <v>12</v>
       </c>
       <c r="K82" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="2">
+        <f t="shared" si="11"/>
+        <v>2.4</v>
+      </c>
+      <c r="O82" s="27">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N82" s="2">
-        <f t="shared" si="10"/>
-        <v>2.4</v>
-      </c>
-      <c r="O82" s="27">
-        <f t="shared" si="8"/>
         <v>7.7999999999999972</v>
       </c>
       <c r="P82" s="27"/>
       <c r="R82" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="S82" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.75</v>
       </c>
       <c r="T82" s="2">
@@ -12406,7 +12420,7 @@
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="X82" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.1199999999999992</v>
       </c>
     </row>
@@ -12443,24 +12457,24 @@
         <v>7</v>
       </c>
       <c r="K83" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="2">
+        <f t="shared" si="11"/>
+        <v>1.4</v>
+      </c>
+      <c r="O83" s="27">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N83" s="2">
-        <f t="shared" si="10"/>
-        <v>1.4</v>
-      </c>
-      <c r="O83" s="27">
-        <f t="shared" si="8"/>
         <v>6.7999999999999972</v>
       </c>
       <c r="P83" s="27"/>
       <c r="R83" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11.999999999999998</v>
       </c>
       <c r="S83" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.1428571428571432</v>
       </c>
       <c r="T83" s="2">
@@ -12476,7 +12490,7 @@
         <v>1.2</v>
       </c>
       <c r="X83" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.5499999999999989</v>
       </c>
     </row>
@@ -12511,21 +12525,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K84" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.20999999999999996</v>
       </c>
       <c r="N84" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.48200000000000004</v>
       </c>
       <c r="O84" s="27"/>
       <c r="P84" s="27"/>
       <c r="R84" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>84.78008298755185</v>
       </c>
       <c r="S84" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>84.78008298755185</v>
       </c>
       <c r="T84" s="2">
@@ -12541,7 +12555,7 @@
         <v>2.8608000000000002</v>
       </c>
       <c r="X84" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12574,24 +12588,24 @@
         <v>6.0579999999999998</v>
       </c>
       <c r="K85" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="2">
+        <f t="shared" si="11"/>
+        <v>1.2116</v>
+      </c>
+      <c r="O85" s="27">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N85" s="2">
-        <f t="shared" si="10"/>
-        <v>1.2116</v>
-      </c>
-      <c r="O85" s="27">
-        <f t="shared" si="8"/>
         <v>8.4822000000000006</v>
       </c>
       <c r="P85" s="27"/>
       <c r="R85" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="S85" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.9991746450973924</v>
       </c>
       <c r="T85" s="2">
@@ -12604,7 +12618,7 @@
         <v>0</v>
       </c>
       <c r="X85" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.4822000000000006</v>
       </c>
     </row>
@@ -12641,21 +12655,21 @@
         <v>10</v>
       </c>
       <c r="K86" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N86" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="O86" s="27"/>
       <c r="P86" s="27"/>
       <c r="R86" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="S86" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="T86" s="2">
@@ -12671,7 +12685,7 @@
         <v>0.4</v>
       </c>
       <c r="X86" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12702,21 +12716,21 @@
         <v>90</v>
       </c>
       <c r="K87" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N87" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O87" s="27"/>
       <c r="P87" s="27"/>
       <c r="R87" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S87" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T87" s="2">
@@ -12735,7 +12749,7 @@
         <v>130</v>
       </c>
       <c r="X87" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12772,21 +12786,21 @@
         <v>12.17</v>
       </c>
       <c r="K88" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.327</v>
       </c>
       <c r="N88" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.6993999999999998</v>
       </c>
       <c r="O88" s="27"/>
       <c r="P88" s="27"/>
       <c r="R88" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15.743498555234497</v>
       </c>
       <c r="S88" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15.743498555234497</v>
       </c>
       <c r="T88" s="2">
@@ -12802,7 +12816,7 @@
         <v>2.4396</v>
       </c>
       <c r="X88" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12837,11 +12851,11 @@
         <v>15.057</v>
       </c>
       <c r="K89" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.2599999999999998</v>
       </c>
       <c r="N89" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.2633999999999999</v>
       </c>
       <c r="O89" s="27">
@@ -12850,11 +12864,11 @@
       </c>
       <c r="P89" s="27"/>
       <c r="R89" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="S89" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T89" s="2">
@@ -12870,7 +12884,7 @@
         <v>3.5707999999999998</v>
       </c>
       <c r="X89" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.843799999999998</v>
       </c>
     </row>
@@ -12905,21 +12919,21 @@
         <v>25.6</v>
       </c>
       <c r="K90" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-20.8</v>
       </c>
       <c r="N90" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
       <c r="O90" s="27"/>
       <c r="P90" s="27"/>
       <c r="R90" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>35.215625000000003</v>
       </c>
       <c r="S90" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>35.215625000000003</v>
       </c>
       <c r="T90" s="2">
@@ -12935,7 +12949,7 @@
         <v>2.4127999999999998</v>
       </c>
       <c r="X90" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12970,24 +12984,24 @@
         <v>12</v>
       </c>
       <c r="K91" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N91" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
       <c r="O91" s="27">
-        <f t="shared" ref="O87:O104" si="14">12*N91-G91</f>
+        <f t="shared" ref="O91:O101" si="15">12*N91-G91</f>
         <v>4.7999999999999972</v>
       </c>
       <c r="P91" s="27"/>
       <c r="R91" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="S91" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="T91" s="2">
@@ -13003,7 +13017,7 @@
         <v>2.4</v>
       </c>
       <c r="X91" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.23999999999999988</v>
       </c>
     </row>
@@ -13040,21 +13054,21 @@
         <v>10</v>
       </c>
       <c r="K92" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N92" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="O92" s="27"/>
       <c r="P92" s="27"/>
       <c r="R92" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.5</v>
       </c>
       <c r="S92" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19.5</v>
       </c>
       <c r="T92" s="2">
@@ -13070,7 +13084,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="X92" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13107,21 +13121,21 @@
         <v>10</v>
       </c>
       <c r="K93" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N93" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="O93" s="27"/>
       <c r="P93" s="27"/>
       <c r="R93" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.5</v>
       </c>
       <c r="S93" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19.5</v>
       </c>
       <c r="T93" s="2">
@@ -13137,7 +13151,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="X93" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13172,24 +13186,24 @@
         <v>12</v>
       </c>
       <c r="K94" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N94" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
       <c r="O94" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16.799999999999997</v>
       </c>
       <c r="P94" s="27"/>
       <c r="R94" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="S94" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="T94" s="2">
@@ -13205,7 +13219,7 @@
         <v>1.2</v>
       </c>
       <c r="X94" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.5439999999999996</v>
       </c>
     </row>
@@ -13240,11 +13254,11 @@
         <v>24</v>
       </c>
       <c r="K95" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-6</v>
       </c>
       <c r="N95" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.6</v>
       </c>
       <c r="O95" s="27">
@@ -13253,11 +13267,11 @@
       </c>
       <c r="P95" s="27"/>
       <c r="R95" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="S95" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.333333333333333</v>
       </c>
       <c r="T95" s="2">
@@ -13273,7 +13287,7 @@
         <v>1.2</v>
       </c>
       <c r="X95" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.92</v>
       </c>
     </row>
@@ -13308,24 +13322,24 @@
         <v>24</v>
       </c>
       <c r="K96" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-12</v>
       </c>
       <c r="N96" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
       <c r="O96" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.799999999999997</v>
       </c>
       <c r="P96" s="27"/>
       <c r="R96" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="S96" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.5</v>
       </c>
       <c r="T96" s="2">
@@ -13341,7 +13355,7 @@
         <v>1.2</v>
       </c>
       <c r="X96" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.2399999999999989</v>
       </c>
     </row>
@@ -13372,21 +13386,21 @@
         <v>45</v>
       </c>
       <c r="K97" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N97" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O97" s="27"/>
       <c r="P97" s="27"/>
       <c r="R97" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S97" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T97" s="2">
@@ -13402,7 +13416,7 @@
         <v>0</v>
       </c>
       <c r="X97" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13439,24 +13453,24 @@
         <v>17.594000000000001</v>
       </c>
       <c r="K98" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.8470000000000013</v>
       </c>
       <c r="N98" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.1494</v>
       </c>
       <c r="O98" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21.909800000000001</v>
       </c>
       <c r="P98" s="27"/>
       <c r="R98" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="S98" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.0431828284752651</v>
       </c>
       <c r="T98" s="2">
@@ -13472,7 +13486,7 @@
         <v>1.6620000000000001</v>
       </c>
       <c r="X98" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21.909800000000001</v>
       </c>
     </row>
@@ -13499,23 +13513,23 @@
         <v>120</v>
       </c>
       <c r="K99" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N99" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O99" s="27"/>
       <c r="P99" s="27"/>
       <c r="R99" s="2" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S99" s="2" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S99" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T99" s="2">
         <v>0</v>
       </c>
@@ -13526,7 +13540,7 @@
         <v>0</v>
       </c>
       <c r="X99" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13553,23 +13567,23 @@
         <v>50</v>
       </c>
       <c r="K100" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N100" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O100" s="27"/>
       <c r="P100" s="27"/>
       <c r="R100" s="2" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S100" s="2" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S100" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T100" s="2">
         <v>0</v>
       </c>
@@ -13580,7 +13594,7 @@
         <v>0</v>
       </c>
       <c r="X100" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13613,24 +13627,24 @@
         <v>14</v>
       </c>
       <c r="K101" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-4</v>
       </c>
       <c r="N101" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="O101" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="P101" s="27"/>
       <c r="R101" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="S101" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="T101" s="2">
@@ -13643,7 +13657,7 @@
         <v>0</v>
       </c>
       <c r="X101" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.82</v>
       </c>
     </row>
@@ -13674,24 +13688,24 @@
         <v>6</v>
       </c>
       <c r="K102" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N102" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2</v>
       </c>
       <c r="O102" s="27">
-        <f t="shared" ref="O102:O103" si="15">7*N102-G102</f>
+        <f t="shared" ref="O102:O103" si="16">7*N102-G102</f>
         <v>8.4</v>
       </c>
       <c r="P102" s="27"/>
       <c r="R102" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0000000000000009</v>
       </c>
       <c r="S102" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T102" s="2">
@@ -13704,7 +13718,7 @@
         <v>0</v>
       </c>
       <c r="X102" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.7800000000000002</v>
       </c>
     </row>
@@ -13735,24 +13749,24 @@
         <v>12</v>
       </c>
       <c r="K103" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N103" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
       <c r="O103" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16.8</v>
       </c>
       <c r="P103" s="27"/>
       <c r="R103" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0000000000000009</v>
       </c>
       <c r="S103" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T103" s="2">
@@ -13765,7 +13779,7 @@
         <v>0</v>
       </c>
       <c r="X103" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.5600000000000005</v>
       </c>
     </row>
@@ -13798,11 +13812,11 @@
         <v>12.147</v>
       </c>
       <c r="K104" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.12800000000000011</v>
       </c>
       <c r="N104" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.4550000000000001</v>
       </c>
       <c r="O104" s="27">
@@ -13811,11 +13825,11 @@
       </c>
       <c r="P104" s="27"/>
       <c r="R104" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="S104" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6366598778004071</v>
       </c>
       <c r="T104" s="2">
@@ -13828,7 +13842,7 @@
         <v>0</v>
       </c>
       <c r="X104" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18.076999999999998</v>
       </c>
     </row>
@@ -13863,21 +13877,21 @@
         <v>136</v>
       </c>
       <c r="K105" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N105" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>27.2</v>
       </c>
       <c r="O105" s="27"/>
       <c r="P105" s="27"/>
       <c r="R105" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.3235294117647058</v>
       </c>
       <c r="S105" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.3235294117647058</v>
       </c>
       <c r="T105" s="2">
@@ -13893,7 +13907,7 @@
         <v>1.6</v>
       </c>
       <c r="X105" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13920,23 +13934,23 @@
         <v>0</v>
       </c>
       <c r="K106" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.4279999999999999</v>
       </c>
       <c r="N106" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.88559999999999994</v>
       </c>
       <c r="O106" s="27"/>
       <c r="P106" s="27"/>
       <c r="R106" s="2">
-        <f t="shared" si="11"/>
-        <v>-5</v>
-      </c>
-      <c r="S106" s="2">
         <f t="shared" si="12"/>
         <v>-5</v>
       </c>
+      <c r="S106" s="2">
+        <f t="shared" si="13"/>
+        <v>-5</v>
+      </c>
       <c r="T106" s="2">
         <v>0</v>
       </c>
@@ -13947,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="X106" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13984,21 +13998,21 @@
         <v>30.972000000000001</v>
       </c>
       <c r="K107" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.1999999999997186E-2</v>
       </c>
       <c r="N107" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.2107999999999999</v>
       </c>
       <c r="O107" s="27"/>
       <c r="P107" s="27"/>
       <c r="R107" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-2.2818316480968637</v>
       </c>
       <c r="S107" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-2.2818316480968637</v>
       </c>
       <c r="T107" s="2">
@@ -14014,7 +14028,7 @@
         <v>6.0213999999999999</v>
       </c>
       <c r="X107" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14051,21 +14065,21 @@
         <v>20.71</v>
       </c>
       <c r="K108" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.6419999999999995</v>
       </c>
       <c r="N108" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.4703999999999997</v>
       </c>
       <c r="O108" s="27"/>
       <c r="P108" s="27"/>
       <c r="R108" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.2356388690050109</v>
       </c>
       <c r="S108" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.2356388690050109</v>
       </c>
       <c r="T108" s="2">
@@ -14081,7 +14095,7 @@
         <v>2.2484000000000002</v>
       </c>
       <c r="X108" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
